--- a/QvaDev.Orchestration/Templates/OrderHistory.xlsx
+++ b/QvaDev.Orchestration/Templates/OrderHistory.xlsx
@@ -19,7 +19,53 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+  <si>
+    <t>Ticket</t>
+  </si>
+  <si>
+    <t>Open Time</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>S / L</t>
+  </si>
+  <si>
+    <t>T / P</t>
+  </si>
+  <si>
+    <t>Commission</t>
+  </si>
+  <si>
+    <t>Swap</t>
+  </si>
+  <si>
+    <t>Profit</t>
+  </si>
+  <si>
+    <t>Close_Date</t>
+  </si>
+  <si>
+    <t>Net Result</t>
+  </si>
+  <si>
+    <t>Size_</t>
+  </si>
+  <si>
+    <t>Item</t>
+  </si>
+  <si>
+    <t>Price_Entry</t>
+  </si>
+  <si>
+    <t>Close Time</t>
+  </si>
+  <si>
+    <t>Price_Close</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -340,7 +386,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -348,14 +394,73 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:O1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
